--- a/app/src/main/assets/Application Development And Emerging Technologies.xlsx
+++ b/app/src/main/assets/Application Development And Emerging Technologies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CF6255-FF8A-4C89-B9C8-34D7D917CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB94A2FD-1D30-4616-8FA3-18905F09F98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="242">
   <si>
     <t>According to Businessdictionary.com, how are emerging technologies defined?</t>
   </si>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t>Software Testing and Deployment</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -785,12 +788,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1089,7 @@
     <col min="6" max="6" width="76.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1109,8 +1111,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1132,8 +1137,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1155,8 +1163,11 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1178,8 +1189,11 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1201,8 +1215,11 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1224,8 +1241,11 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1247,8 +1267,11 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1270,8 +1293,11 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1293,8 +1319,11 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1316,8 +1345,11 @@
       <c r="G10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -1339,8 +1371,11 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -1362,8 +1397,11 @@
       <c r="G12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -1385,8 +1423,11 @@
       <c r="G13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -1408,8 +1449,11 @@
       <c r="G14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -1431,8 +1475,11 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -1454,8 +1501,11 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -1477,8 +1527,11 @@
       <c r="G17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -1500,8 +1553,11 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -1523,8 +1579,11 @@
       <c r="G19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -1546,8 +1605,11 @@
       <c r="G20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -1569,8 +1631,11 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -1592,8 +1657,11 @@
       <c r="G22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -1615,8 +1683,11 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -1638,8 +1709,11 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -1661,8 +1735,11 @@
       <c r="G25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -1684,8 +1761,11 @@
       <c r="G26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -1707,8 +1787,11 @@
       <c r="G27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -1730,8 +1813,11 @@
       <c r="G28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -1753,8 +1839,11 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -1776,8 +1865,11 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>216</v>
       </c>
@@ -1799,8 +1891,11 @@
       <c r="G31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>216</v>
       </c>
@@ -1822,8 +1917,11 @@
       <c r="G32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>216</v>
       </c>
@@ -1845,8 +1943,11 @@
       <c r="G33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>216</v>
       </c>
@@ -1868,8 +1969,11 @@
       <c r="G34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>240</v>
       </c>
@@ -1891,8 +1995,11 @@
       <c r="G35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>240</v>
       </c>
@@ -1914,8 +2021,11 @@
       <c r="G36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>240</v>
       </c>
@@ -1936,6 +2046,9 @@
       </c>
       <c r="G37" t="s">
         <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1945,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D70A880-76B6-412C-8923-6C4EA35B8133}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,7 +2071,7 @@
     <col min="3" max="3" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1968,8 +2081,11 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1979,8 +2095,11 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1990,8 +2109,11 @@
       <c r="C3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2001,8 +2123,11 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2012,8 +2137,11 @@
       <c r="C5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2023,8 +2151,11 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2034,8 +2165,11 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2045,8 +2179,11 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -2056,8 +2193,11 @@
       <c r="C9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2067,8 +2207,11 @@
       <c r="C10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -2078,8 +2221,11 @@
       <c r="C11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -2089,8 +2235,11 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2100,8 +2249,11 @@
       <c r="C13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -2111,8 +2263,11 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -2122,8 +2277,11 @@
       <c r="C15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -2133,8 +2291,11 @@
       <c r="C16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -2144,247 +2305,316 @@
       <c r="C17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>132</v>
       </c>
       <c r="C25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>134</v>
       </c>
       <c r="C26" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>166</v>
       </c>
       <c r="C27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>168</v>
       </c>
       <c r="C28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>170</v>
       </c>
       <c r="C29" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>186</v>
       </c>
       <c r="C30" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>188</v>
       </c>
       <c r="C31" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>191</v>
       </c>
       <c r="C32" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>193</v>
       </c>
       <c r="C33" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>195</v>
       </c>
       <c r="C34" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>218</v>
       </c>
       <c r="C35" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>220</v>
       </c>
       <c r="C36" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>222</v>
       </c>
       <c r="C37" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>240</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>224</v>
       </c>
       <c r="C38" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>240</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>227</v>
       </c>
       <c r="C39" t="s">
         <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2394,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59D2DA8-6233-4070-9D78-57DA699DCE00}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2406,7 +2636,7 @@
     <col min="2" max="2" width="177.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2416,8 +2646,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2427,8 +2660,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2438,8 +2674,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2449,8 +2688,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2460,8 +2702,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2471,8 +2716,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2482,8 +2730,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2493,8 +2744,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2504,8 +2758,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2515,8 +2772,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2526,8 +2786,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2537,8 +2800,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2548,8 +2814,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2559,8 +2828,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2570,8 +2842,11 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2581,8 +2856,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2592,8 +2870,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -2603,8 +2884,11 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2614,8 +2898,11 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2625,8 +2912,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2636,8 +2926,11 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2647,8 +2940,11 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2658,8 +2954,11 @@
       <c r="C23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -2669,8 +2968,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -2680,8 +2982,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2691,8 +2996,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -2702,8 +3010,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -2713,8 +3024,11 @@
       <c r="C28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -2724,8 +3038,11 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -2735,8 +3052,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -2746,8 +3066,11 @@
       <c r="C31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -2757,8 +3080,11 @@
       <c r="C32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -2768,8 +3094,11 @@
       <c r="C33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -2779,8 +3108,11 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -2790,8 +3122,11 @@
       <c r="C35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -2801,8 +3136,11 @@
       <c r="C36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -2812,8 +3150,11 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -2823,8 +3164,11 @@
       <c r="C38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>216</v>
       </c>
@@ -2834,8 +3178,11 @@
       <c r="C39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>216</v>
       </c>
@@ -2845,8 +3192,11 @@
       <c r="C40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -2856,8 +3206,11 @@
       <c r="C41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -2867,8 +3220,11 @@
       <c r="C42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>240</v>
       </c>
@@ -2878,8 +3234,11 @@
       <c r="C43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>240</v>
       </c>
@@ -2888,6 +3247,9 @@
       </c>
       <c r="C44" t="b">
         <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
